--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janul\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7110e99bc57df645/Desktop/Tours/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9ED73AA-3776-48A0-86BF-73BFA8804F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{A9ED73AA-3776-48A0-86BF-73BFA8804F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A5629A4-DE9C-4C81-8656-014A02910BC7}"/>
   <bookViews>
-    <workbookView xWindow="1008" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{2834E708-77AA-4816-AADA-FE90EF5AA1C3}"/>
+    <workbookView xWindow="3816" yWindow="1932" windowWidth="16440" windowHeight="9420" xr2:uid="{2834E708-77AA-4816-AADA-FE90EF5AA1C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>prototype</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>admin lists &amp; backend coding</t>
+  </si>
+  <si>
+    <t>search query  backend coding</t>
   </si>
 </sst>
 </file>
@@ -470,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{763EC693-FDE2-40B1-944F-23D140F66A88}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -665,6 +668,14 @@
         <v>20</v>
       </c>
     </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7110e99bc57df645/Desktop/Tours/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{A9ED73AA-3776-48A0-86BF-73BFA8804F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A5629A4-DE9C-4C81-8656-014A02910BC7}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{A9ED73AA-3776-48A0-86BF-73BFA8804F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CCDDEB6-4F08-4C06-A744-0AD44E579F4E}"/>
   <bookViews>
     <workbookView xWindow="3816" yWindow="1932" windowWidth="16440" windowHeight="9420" xr2:uid="{2834E708-77AA-4816-AADA-FE90EF5AA1C3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>prototype</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>search query  backend coding</t>
+  </si>
+  <si>
+    <t>search query logging</t>
   </si>
 </sst>
 </file>
@@ -154,6 +157,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -473,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{763EC693-FDE2-40B1-944F-23D140F66A88}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -676,6 +683,14 @@
         <v>21</v>
       </c>
     </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7110e99bc57df645/Desktop/Tours/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janul\OneDrive\Desktop\Tours\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{A9ED73AA-3776-48A0-86BF-73BFA8804F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CCDDEB6-4F08-4C06-A744-0AD44E579F4E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5877C4-3194-4E21-AF86-4B1A3F18FF8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3816" yWindow="1932" windowWidth="16440" windowHeight="9420" xr2:uid="{2834E708-77AA-4816-AADA-FE90EF5AA1C3}"/>
+    <workbookView xWindow="1008" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{2834E708-77AA-4816-AADA-FE90EF5AA1C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>prototype</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>search query logging</t>
+  </si>
+  <si>
+    <t>admin options front end coding</t>
   </si>
 </sst>
 </file>
@@ -157,10 +160,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -480,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{763EC693-FDE2-40B1-944F-23D140F66A88}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -691,6 +690,14 @@
         <v>22</v>
       </c>
     </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janul\OneDrive\Desktop\Tours\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7110e99bc57df645/Desktop/Tours/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5877C4-3194-4E21-AF86-4B1A3F18FF8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{CB5877C4-3194-4E21-AF86-4B1A3F18FF8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21CD7A26-7266-4C4D-A940-CA7684D3AD4D}"/>
   <bookViews>
     <workbookView xWindow="1008" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{2834E708-77AA-4816-AADA-FE90EF5AA1C3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>prototype</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>admin options front end coding</t>
+  </si>
+  <si>
+    <t>Admin crud</t>
   </si>
 </sst>
 </file>
@@ -479,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{763EC693-FDE2-40B1-944F-23D140F66A88}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -698,6 +701,14 @@
         <v>23</v>
       </c>
     </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
